--- a/damper_workbook.xlsx
+++ b/damper_workbook.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="0" rupBuild="29127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_035831DEFEA5263EFFB6BC2C1FCF3358A6715C2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BD8971D-4637-46B6-9FC4-B42D6D57AD14}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_035831DEFEA5263EFFB6BC2C1FCF3358A6715C2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BDB0D93-4781-42B6-B291-BFCCA62B5BF1}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="383" windowWidth="20737" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="495" yWindow="803" windowWidth="20738" windowHeight="12974" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,10 @@
     <definedName name="CdLookup">Fluids!$E$2:$F$5</definedName>
     <definedName name="ClickAreaLookup">Catalog!$A$2:$B$22</definedName>
     <definedName name="ClickSetting">Inputs!$B$10</definedName>
-    <definedName name="DeltaPBudget">Solver!$A$2:$D$8</definedName>
+    <definedName name="DeltaPBudget">Solver!$A$2:$D$102</definedName>
     <definedName name="ElementDefinitions">Elements!$A$2:$D$4</definedName>
-    <definedName name="FlowSplit">Solver!$A$2:$F$8</definedName>
-    <definedName name="ForceVelocity">Solver!$A$2:$B$8</definedName>
+    <definedName name="FlowSplit">Solver!$A$2:$F$102</definedName>
+    <definedName name="ForceVelocity">Solver!$A$2:$B$102</definedName>
     <definedName name="GasPressure">Inputs!$B$8</definedName>
     <definedName name="NodePressures">Nodes!$A$2:$B$5</definedName>
     <definedName name="OilDensity">Inputs!$B$9</definedName>
@@ -34,7 +34,7 @@
     <definedName name="ShaftPressure">Nodes!$B$2</definedName>
     <definedName name="ShimStackCatalog">Catalog!$D$2:$F$4</definedName>
     <definedName name="ShimStackCode">Inputs!$B$11</definedName>
-    <definedName name="SolverResults">Solver!$A$1:$F$8</definedName>
+    <definedName name="SolverResults">Solver!$A$1:$F$102</definedName>
     <definedName name="SolverSettings">Solver!$H$2:$I$6</definedName>
     <definedName name="Stroke">Inputs!$B$7</definedName>
     <definedName name="Temperature">Inputs!$B$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
   <si>
     <t>Damper Model Inputs</t>
   </si>
@@ -323,42 +323,6 @@
   </si>
   <si>
     <t>Reservoir static pressure.</t>
-  </si>
-  <si>
-    <t>Velocity_mps</t>
-  </si>
-  <si>
-    <t>Force_N</t>
-  </si>
-  <si>
-    <t>DeltaP_bar</t>
-  </si>
-  <si>
-    <t>Losses_bar</t>
-  </si>
-  <si>
-    <t>CavitationMargin_bar</t>
-  </si>
-  <si>
-    <t>FlowSplit</t>
-  </si>
-  <si>
-    <t>Totals</t>
-  </si>
-  <si>
-    <t>PeakForce</t>
-  </si>
-  <si>
-    <t>AvgDeltaP</t>
-  </si>
-  <si>
-    <t>BleedFlowFraction</t>
-  </si>
-  <si>
-    <t>CavitationLimit</t>
-  </si>
-  <si>
-    <t>CompressionLoss</t>
   </si>
   <si>
     <t>Force vs Velocity</t>
@@ -447,843 +411,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:t>Force-Velocity Curve</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Solver!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Force_N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Solver!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Solver!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FEB2-4B1A-AD92-BA5D3CB6316C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="123456"/>
-        <c:axId val="654321"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="123456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654321"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="654321"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:t>ΔP Budget</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Solver!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Force_N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Solver!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Solver!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.8000000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.20400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27200000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40800000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE46-4399-B22D-5A5D5FCD48D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="123456"/>
-        <c:axId val="654321"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="123456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654321"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="654321"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:t>Cavitation Margin</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Solver!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Force_N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Solver!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Solver!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.332000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.264000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.196</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.128</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.992000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7544-4849-8E0F-63ED8AAF63BC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="123456"/>
-        <c:axId val="654321"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="123456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654321"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="654321"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:t>Flow Split</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Solver!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Force_N</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numRef>
-              <c:f>Solver!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Solver!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83333333333333337</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-51DC-4AFD-8FF5-A47D1C23F6C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="123456"/>
-        <c:axId val="654321"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="123456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="654321"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="654321"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1573,6 +700,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1815,6 +943,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1960,6 +1089,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2050,6 +1180,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2134,6 +1265,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2209,7 +1341,8 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I8"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2219,236 +1352,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1">
         <v>91</v>
       </c>
-      <c r="H1" t="s">
-        <v>92</v>
+      <c r="H1">
+        <v>110</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="H2">
+        <v>111</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f t="shared" ref="B2:B8" si="0">A2*Ap*10</f>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H3">
+        <v>112</v>
+      </c>
+      <c r="I3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H4">
+        <v>113</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H5">
+        <v>114</v>
+      </c>
+      <c r="I5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H6">
+        <v>115</v>
+      </c>
+      <c r="I6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H8">
+        <v>93</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C8" si="1">A2*VLOOKUP("BaseValve",CdLookup,2,FALSE)</f>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H9">
+        <v>94</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D8" si="2">A2*0.15</f>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H10">
+        <v>95</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E8" si="3">ShaftPressure-C2</f>
-        <v>12.4</v>
-      </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F8" si="4">A2/MAX($A$2:$A$8)</f>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H11">
+        <v>96</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2">
-        <f>MAX(B2:B8)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>0.1</v>
-      </c>
-      <c r="B3">
-        <f t="shared" si="0"/>
-        <v>12.5</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="2"/>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="3"/>
-        <v>12.332000000000001</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="4"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="H3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3">
-        <f>AVERAGE(C2:C8)</f>
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>0.2</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="3"/>
-        <v>12.264000000000001</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333337</v>
-      </c>
-      <c r="H4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4">
-        <f>INDEX(ElementDefinitions,3,4)/SUMPRODUCT(INDEX(ElementDefinitions,0,4))</f>
-        <v>8.211885980378423E-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>0.3</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>37.5</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="3"/>
-        <v>12.196</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5">
-        <f>MIN(E2:E8)</f>
-        <v>11.992000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>0.4</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>0.27200000000000002</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>0.06</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="3"/>
-        <v>12.128</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H12">
         <v>97</v>
       </c>
-      <c r="I6">
-        <f>SUM(D2:D8)</f>
-        <v>0.31499999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>0.5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>62.5</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>0.34</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>12.06</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="4"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>0.6</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>0.40800000000000003</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>0.09</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>11.992000000000001</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="I12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2458,6 +1464,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2469,28 +1476,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2502,10 +1509,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>28</v>
@@ -2514,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -2528,7 +1535,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F2">
         <v>52</v>
@@ -2542,10 +1549,10 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F3">
         <v>48</v>
@@ -2559,10 +1566,10 @@
         <v>0.08</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F4">
         <v>60</v>
